--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H2">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I2">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J2">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N2">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O2">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P2">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q2">
-        <v>10176.38636997836</v>
+        <v>16357.09721403264</v>
       </c>
       <c r="R2">
-        <v>91587.47732980526</v>
+        <v>147213.8749262938</v>
       </c>
       <c r="S2">
-        <v>0.4531852075197284</v>
+        <v>0.6724018144145293</v>
       </c>
       <c r="T2">
-        <v>0.4531852075197284</v>
+        <v>0.6724018144145293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H3">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I3">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J3">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.350286</v>
       </c>
       <c r="O3">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P3">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q3">
-        <v>290.42282519028</v>
+        <v>422.240266747746</v>
       </c>
       <c r="R3">
-        <v>2613.80542671252</v>
+        <v>3800.162400729715</v>
       </c>
       <c r="S3">
-        <v>0.01293340519092365</v>
+        <v>0.01735730476899596</v>
       </c>
       <c r="T3">
-        <v>0.01293340519092365</v>
+        <v>0.01735730476899595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H4">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I4">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J4">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N4">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O4">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P4">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q4">
-        <v>4604.895181216641</v>
+        <v>1345.298803360629</v>
       </c>
       <c r="R4">
-        <v>41444.05663094976</v>
+        <v>12107.68923024566</v>
       </c>
       <c r="S4">
-        <v>0.2050698845773775</v>
+        <v>0.05530207129498184</v>
       </c>
       <c r="T4">
-        <v>0.2050698845773775</v>
+        <v>0.05530207129498183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H5">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I5">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J5">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N5">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O5">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P5">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q5">
-        <v>90.64726922806003</v>
+        <v>18.54925891698</v>
       </c>
       <c r="R5">
-        <v>815.8254230525401</v>
+        <v>166.94333025282</v>
       </c>
       <c r="S5">
-        <v>0.004036796562422819</v>
+        <v>0.0007625164287170781</v>
       </c>
       <c r="T5">
-        <v>0.004036796562422817</v>
+        <v>0.0007625164287170781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H6">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I6">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J6">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N6">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O6">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P6">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q6">
-        <v>1365.6955721997</v>
+        <v>1062.390088850046</v>
       </c>
       <c r="R6">
-        <v>12291.2601497973</v>
+        <v>9561.510799650416</v>
       </c>
       <c r="S6">
-        <v>0.06081854685883074</v>
+        <v>0.04367235909962957</v>
       </c>
       <c r="T6">
-        <v>0.06081854685883072</v>
+        <v>0.04367235909962957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="H7">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="I7">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="J7">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N7">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O7">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P7">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q7">
-        <v>4093.14103084744</v>
+        <v>3807.68343330975</v>
       </c>
       <c r="R7">
-        <v>36838.26927762696</v>
+        <v>34269.15089978775</v>
       </c>
       <c r="S7">
-        <v>0.1822799272779632</v>
+        <v>0.1565249148899819</v>
       </c>
       <c r="T7">
-        <v>0.1822799272779632</v>
+        <v>0.1565249148899819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.895548</v>
       </c>
       <c r="I8">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J8">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N8">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O8">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P8">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q8">
-        <v>129.0749794586373</v>
+        <v>142.700603699992</v>
       </c>
       <c r="R8">
-        <v>1161.674815127736</v>
+        <v>1284.305433299928</v>
       </c>
       <c r="S8">
-        <v>0.005748098512074441</v>
+        <v>0.005866086359357613</v>
       </c>
       <c r="T8">
-        <v>0.005748098512074441</v>
+        <v>0.005866086359357613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.895548</v>
       </c>
       <c r="I9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.350286</v>
       </c>
       <c r="O9">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P9">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q9">
-        <v>3.683657325191999</v>
+        <v>3.683657325192</v>
       </c>
       <c r="R9">
         <v>33.152915926728</v>
       </c>
       <c r="S9">
-        <v>0.0001640443816356644</v>
+        <v>0.0001514264931442456</v>
       </c>
       <c r="T9">
-        <v>0.0001640443816356644</v>
+        <v>0.0001514264931442455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.895548</v>
       </c>
       <c r="I10">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J10">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N10">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O10">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P10">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q10">
-        <v>58.40744733102932</v>
+        <v>11.736492660308</v>
       </c>
       <c r="R10">
-        <v>525.6670259792639</v>
+        <v>105.628433942772</v>
       </c>
       <c r="S10">
-        <v>0.00260105996147102</v>
+        <v>0.0004824596232688353</v>
       </c>
       <c r="T10">
-        <v>0.00260105996147102</v>
+        <v>0.0004824596232688352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.895548</v>
       </c>
       <c r="I11">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J11">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N11">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O11">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P11">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q11">
-        <v>1.149749428550667</v>
+        <v>0.16182519496</v>
       </c>
       <c r="R11">
-        <v>10.347744856956</v>
+        <v>1.45642675464</v>
       </c>
       <c r="S11">
-        <v>5.120181314170474E-05</v>
+        <v>6.652253348212679E-06</v>
       </c>
       <c r="T11">
-        <v>5.120181314170473E-05</v>
+        <v>6.652253348212679E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.895548</v>
       </c>
       <c r="I12">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J12">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N12">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O12">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P12">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q12">
-        <v>17.32217326658</v>
+        <v>9.268374764792</v>
       </c>
       <c r="R12">
-        <v>155.89955939922</v>
+        <v>83.415372883128</v>
       </c>
       <c r="S12">
-        <v>0.0007714086711238383</v>
+        <v>0.000381001098604068</v>
       </c>
       <c r="T12">
-        <v>0.0007714086711238382</v>
+        <v>0.000381001098604068</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.895548</v>
       </c>
       <c r="I13">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="J13">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N13">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O13">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P13">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q13">
-        <v>51.91647361548266</v>
+        <v>33.218530007</v>
       </c>
       <c r="R13">
-        <v>467.248262539344</v>
+        <v>298.966770063</v>
       </c>
       <c r="S13">
-        <v>0.002311997305697331</v>
+        <v>0.001365535678893454</v>
       </c>
       <c r="T13">
-        <v>0.00231199730569733</v>
+        <v>0.001365535678893454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H14">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I14">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J14">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N14">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O14">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P14">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q14">
-        <v>203.4581859910989</v>
+        <v>290.3409273218933</v>
       </c>
       <c r="R14">
-        <v>1831.12367391989</v>
+        <v>2613.06834589704</v>
       </c>
       <c r="S14">
-        <v>0.009060607261530273</v>
+        <v>0.01193523299247468</v>
       </c>
       <c r="T14">
-        <v>0.009060607261530273</v>
+        <v>0.01193523299247467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H15">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I15">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J15">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.350286</v>
       </c>
       <c r="O15">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P15">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q15">
-        <v>5.806471868829999</v>
+        <v>7.49482802456</v>
       </c>
       <c r="R15">
-        <v>52.25824681947</v>
+        <v>67.45345222104</v>
       </c>
       <c r="S15">
-        <v>0.0002585797220314055</v>
+        <v>0.0003080947613440619</v>
       </c>
       <c r="T15">
-        <v>0.0002585797220314055</v>
+        <v>0.0003080947613440618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H16">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N16">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O16">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P16">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q16">
-        <v>92.06643558792888</v>
+        <v>23.87925540710667</v>
       </c>
       <c r="R16">
-        <v>828.59792029136</v>
+        <v>214.91329866396</v>
       </c>
       <c r="S16">
-        <v>0.004099996324884623</v>
+        <v>0.000981620054738793</v>
       </c>
       <c r="T16">
-        <v>0.004099996324884623</v>
+        <v>0.0009816200547387926</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H17">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I17">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J17">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N17">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O17">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P17">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q17">
-        <v>1.812325936896111</v>
+        <v>0.3292521261333333</v>
       </c>
       <c r="R17">
-        <v>16.310933432065</v>
+        <v>2.9632691352</v>
       </c>
       <c r="S17">
-        <v>8.070834537382024E-05</v>
+        <v>1.353478090366584E-05</v>
       </c>
       <c r="T17">
-        <v>8.070834537382023E-05</v>
+        <v>1.353478090366584E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H18">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I18">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J18">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N18">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O18">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P18">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q18">
-        <v>27.30457881940833</v>
+        <v>18.85758331922667</v>
       </c>
       <c r="R18">
-        <v>245.741209374675</v>
+        <v>169.71824987304</v>
       </c>
       <c r="S18">
-        <v>0.001215955327228663</v>
+        <v>0.000775190920088388</v>
       </c>
       <c r="T18">
-        <v>0.001215955327228663</v>
+        <v>0.0007751909200883878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="H19">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="I19">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="J19">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N19">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O19">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P19">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q19">
-        <v>81.83484970645111</v>
+        <v>67.58695167666667</v>
       </c>
       <c r="R19">
-        <v>736.51364735806</v>
+        <v>608.28256509</v>
       </c>
       <c r="S19">
-        <v>0.00364435291647075</v>
+        <v>0.002778340700888561</v>
       </c>
       <c r="T19">
-        <v>0.003644352916470749</v>
+        <v>0.00277834070088856</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H20">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I20">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J20">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N20">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O20">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P20">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q20">
-        <v>139.6250322662953</v>
+        <v>42.44501469706799</v>
       </c>
       <c r="R20">
-        <v>1256.625290396658</v>
+        <v>382.0051322736119</v>
       </c>
       <c r="S20">
-        <v>0.006217924214161335</v>
+        <v>0.001744814775000268</v>
       </c>
       <c r="T20">
-        <v>0.006217924214161335</v>
+        <v>0.001744814775000268</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H21">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I21">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J21">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.350286</v>
       </c>
       <c r="O21">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P21">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q21">
-        <v>3.984744177725999</v>
+        <v>1.095670832868</v>
       </c>
       <c r="R21">
-        <v>35.86269759953399</v>
+        <v>9.861037495812001</v>
       </c>
       <c r="S21">
-        <v>0.0001774526881588544</v>
+        <v>4.504045225026144E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001774526881588544</v>
+        <v>4.504045225026143E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H22">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I22">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J22">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N22">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O22">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P22">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q22">
-        <v>63.18142952562133</v>
+        <v>3.490914477882</v>
       </c>
       <c r="R22">
-        <v>568.6328657305919</v>
+        <v>31.418230300938</v>
       </c>
       <c r="S22">
-        <v>0.002813659801226934</v>
+        <v>0.000143503287788745</v>
       </c>
       <c r="T22">
-        <v>0.002813659801226933</v>
+        <v>0.000143503287788745</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H23">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I23">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J23">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N23">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O23">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P23">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q23">
-        <v>1.243725172243667</v>
+        <v>0.04813345283999999</v>
       </c>
       <c r="R23">
-        <v>11.193526550193</v>
+        <v>0.43320107556</v>
       </c>
       <c r="S23">
-        <v>5.538683672070075E-05</v>
+        <v>1.97865309474877E-06</v>
       </c>
       <c r="T23">
-        <v>5.538683672070074E-05</v>
+        <v>1.97865309474877E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H24">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I24">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J24">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N24">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O24">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P24">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q24">
-        <v>18.738015775115</v>
+        <v>2.756794946268</v>
       </c>
       <c r="R24">
-        <v>168.642141976035</v>
+        <v>24.811154516412</v>
       </c>
       <c r="S24">
-        <v>0.0008344604124510547</v>
+        <v>0.0001133253596028734</v>
       </c>
       <c r="T24">
-        <v>0.0008344604124510546</v>
+        <v>0.0001133253596028734</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="H25">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="I25">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="J25">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N25">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O25">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P25">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q25">
-        <v>56.15991057381466</v>
+        <v>9.880553815499999</v>
       </c>
       <c r="R25">
-        <v>505.439195164332</v>
+        <v>88.9249843395</v>
       </c>
       <c r="S25">
-        <v>0.002500970364368909</v>
+        <v>0.0004061663402760126</v>
       </c>
       <c r="T25">
-        <v>0.002500970364368909</v>
+        <v>0.0004061663402760126</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H26">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I26">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J26">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N26">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O26">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P26">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q26">
-        <v>218.3855361507182</v>
+        <v>354.8384464476526</v>
       </c>
       <c r="R26">
-        <v>1965.469825356464</v>
+        <v>3193.546018028874</v>
       </c>
       <c r="S26">
-        <v>0.009725367229740985</v>
+        <v>0.01458657438379386</v>
       </c>
       <c r="T26">
-        <v>0.009725367229740985</v>
+        <v>0.01458657438379385</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H27">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I27">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J27">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.350286</v>
       </c>
       <c r="O27">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P27">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q27">
-        <v>6.232481952207999</v>
+        <v>9.159759725085999</v>
       </c>
       <c r="R27">
-        <v>56.09233756987199</v>
+        <v>82.437837525774</v>
       </c>
       <c r="S27">
-        <v>0.0002775512371667498</v>
+        <v>0.0003765361896525968</v>
       </c>
       <c r="T27">
-        <v>0.0002775512371667497</v>
+        <v>0.0003765361896525966</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H28">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I28">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J28">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N28">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O28">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P28">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q28">
-        <v>98.82117939572622</v>
+        <v>29.18389070787233</v>
       </c>
       <c r="R28">
-        <v>889.3906145615359</v>
+        <v>262.655016370851</v>
       </c>
       <c r="S28">
-        <v>0.004400805459186955</v>
+        <v>0.001199681141884636</v>
       </c>
       <c r="T28">
-        <v>0.004400805459186955</v>
+        <v>0.001199681141884636</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H29">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I29">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J29">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N29">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O29">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P29">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q29">
-        <v>1.945292933193778</v>
+        <v>0.4023935378466666</v>
       </c>
       <c r="R29">
-        <v>17.507636398744</v>
+        <v>3.62154184062</v>
       </c>
       <c r="S29">
-        <v>8.662976714571795E-05</v>
+        <v>1.654145239930835E-05</v>
       </c>
       <c r="T29">
-        <v>8.662976714571794E-05</v>
+        <v>1.654145239930835E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H30">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I30">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J30">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N30">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O30">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P30">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q30">
-        <v>29.30786518025333</v>
+        <v>23.04668387771934</v>
       </c>
       <c r="R30">
-        <v>263.77078662228</v>
+        <v>207.420154899474</v>
       </c>
       <c r="S30">
-        <v>0.001305167716789587</v>
+        <v>0.0009473949963641535</v>
       </c>
       <c r="T30">
-        <v>0.001305167716789587</v>
+        <v>0.0009473949963641532</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="H31">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="I31">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="J31">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N31">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O31">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P31">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q31">
-        <v>87.83892101416177</v>
+        <v>82.60099309558333</v>
       </c>
       <c r="R31">
-        <v>790.5502891274559</v>
+        <v>743.40893786025</v>
       </c>
       <c r="S31">
-        <v>0.003911732338067327</v>
+        <v>0.003395532648804211</v>
       </c>
       <c r="T31">
-        <v>0.003911732338067326</v>
+        <v>0.003395532648804211</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H32">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I32">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J32">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>39.13122733333334</v>
+        <v>43.26206199999999</v>
       </c>
       <c r="N32">
-        <v>117.393682</v>
+        <v>129.786186</v>
       </c>
       <c r="O32">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="P32">
-        <v>0.4934917545616899</v>
+        <v>0.7107683951967818</v>
       </c>
       <c r="Q32">
-        <v>214.5497888975653</v>
+        <v>102.9947552998287</v>
       </c>
       <c r="R32">
-        <v>1930.948100078088</v>
+        <v>926.952797698458</v>
       </c>
       <c r="S32">
-        <v>0.009554549824454417</v>
+        <v>0.004233872271626095</v>
       </c>
       <c r="T32">
-        <v>0.009554549824454415</v>
+        <v>0.004233872271626094</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H33">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I33">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J33">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.350286</v>
       </c>
       <c r="O33">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775082</v>
       </c>
       <c r="P33">
-        <v>0.01408370951703743</v>
+        <v>0.01834769536775081</v>
       </c>
       <c r="Q33">
-        <v>6.123013962936</v>
+        <v>2.658695022862001</v>
       </c>
       <c r="R33">
-        <v>55.107125666424</v>
+        <v>23.928255205758</v>
       </c>
       <c r="S33">
-        <v>0.0002726762971211013</v>
+        <v>0.0001092927023636946</v>
       </c>
       <c r="T33">
-        <v>0.0002726762971211013</v>
+        <v>0.0001092927023636945</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H34">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I34">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J34">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.70718933333333</v>
+        <v>3.558113</v>
       </c>
       <c r="N34">
-        <v>53.121568</v>
+        <v>10.674339</v>
       </c>
       <c r="O34">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598362</v>
       </c>
       <c r="P34">
-        <v>0.2233089153587338</v>
+        <v>0.05845755264598361</v>
       </c>
       <c r="Q34">
-        <v>97.08547347810133</v>
+        <v>8.470862479096334</v>
       </c>
       <c r="R34">
-        <v>873.769261302912</v>
+        <v>76.237762311867</v>
       </c>
       <c r="S34">
-        <v>0.004323509234586776</v>
+        <v>0.0003482172433207723</v>
       </c>
       <c r="T34">
-        <v>0.004323509234586774</v>
+        <v>0.0003482172433207723</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H35">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I35">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J35">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.3485656666666667</v>
+        <v>0.04906</v>
       </c>
       <c r="N35">
-        <v>1.045697</v>
+        <v>0.14718</v>
       </c>
       <c r="O35">
-        <v>0.004395831517320459</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="P35">
-        <v>0.004395831517320458</v>
+        <v>0.000806024860034506</v>
       </c>
       <c r="Q35">
-        <v>1.911125597038667</v>
+        <v>0.1167980087266667</v>
       </c>
       <c r="R35">
-        <v>17.200130373348</v>
+        <v>1.05118207854</v>
       </c>
       <c r="S35">
-        <v>8.510819251569699E-05</v>
+        <v>4.801291571492274E-06</v>
       </c>
       <c r="T35">
-        <v>8.510819251569696E-05</v>
+        <v>4.801291571492274E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H36">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I36">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J36">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.251505</v>
+        <v>2.809862</v>
       </c>
       <c r="N36">
-        <v>15.754515</v>
+        <v>8.429586</v>
       </c>
       <c r="O36">
-        <v>0.06622778259581688</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="P36">
-        <v>0.06622778259581687</v>
+        <v>0.04616426060469379</v>
       </c>
       <c r="Q36">
-        <v>28.79309865614</v>
+        <v>6.689488104295335</v>
       </c>
       <c r="R36">
-        <v>259.13788790526</v>
+        <v>60.20539293865801</v>
       </c>
       <c r="S36">
-        <v>0.001282243609393004</v>
+        <v>0.0002749891304047376</v>
       </c>
       <c r="T36">
-        <v>0.001282243609393003</v>
+        <v>0.0002749891304047375</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="H37">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="I37">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="J37">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.73934266666667</v>
+        <v>10.07075</v>
       </c>
       <c r="N37">
-        <v>47.218028</v>
+        <v>30.21225</v>
       </c>
       <c r="O37">
-        <v>0.1984920064494016</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="P37">
-        <v>0.1984920064494015</v>
+        <v>0.1654560713247554</v>
       </c>
       <c r="Q37">
-        <v>86.29610867439467</v>
+        <v>23.97561244158334</v>
       </c>
       <c r="R37">
-        <v>776.6649780695519</v>
+        <v>215.78051197425</v>
       </c>
       <c r="S37">
-        <v>0.003843026246833997</v>
+        <v>0.0009855810659112479</v>
       </c>
       <c r="T37">
-        <v>0.003843026246833995</v>
+        <v>0.0009855810659112477</v>
       </c>
     </row>
   </sheetData>
